--- a/qa/QTP/Test032.xlsx
+++ b/qa/QTP/Test032.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2205" windowWidth="21615" windowHeight="11685"/>
+    <workbookView xWindow="1155" yWindow="2205" windowWidth="19320" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="TST001" sheetId="1" r:id="rId1"/>
@@ -198,15 +198,9 @@
     <t>Edit Copy Number Data Configuration page loaded</t>
   </si>
   <si>
-    <t>Input data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Supplemental/caArray_data_source.xls and click save</t>
-  </si>
-  <si>
     <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "EXP-481"; and wait for Status="Not Mapped"</t>
   </si>
   <si>
-    <t>Input Data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Supplemental/caArray_data_source.xls and click Save Segmentation Data Calculation Configuration</t>
-  </si>
-  <si>
     <t>Under Genomic Data Sources section, look for row with Experiment Identifier of "EXP-481"; and wait for Status="Ready to be loaded"</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Look for row with Study Name=Test032 {timestamp}</t>
+  </si>
+  <si>
+    <t>Input data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Supplemental/caArray_data_source_3samples.xls and click save</t>
+  </si>
+  <si>
+    <t>Input Data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Supplemental/caArray_data_source_3samples.xls and click Save Segmentation Data Calculation Configuration</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,10 +636,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -685,7 +685,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -831,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
@@ -853,13 +853,13 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="6:9">
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
@@ -889,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>

--- a/qa/QTP/Test032.xlsx
+++ b/qa/QTP/Test032.xlsx
@@ -189,9 +189,6 @@
     <t>Group Name=SUBJECTS, Description=subjects, File= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Annotation_Groups/Annotation_Group.csv</t>
   </si>
   <si>
-    <t>Input filename= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Subject_Data/Subject_Data.csv</t>
-  </si>
-  <si>
     <t>Under Genomic Data Source section, click ConfigureCopyNumberData button</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Input Data from https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Genomic/Supplemental/caArray_data_source_3samples.xls and click Save Segmentation Data Calculation Configuration</t>
+  </si>
+  <si>
+    <t>Input filename= https://ncisvn.nci.nih.gov/svn/caintegrator2/trunk/data/qa/Studies/Netherlands_Cairo/Subject_Data/Subject_Data-small3x3.csv</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,10 +636,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -685,7 +685,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -831,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
         <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="6:9">
@@ -853,13 +853,13 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="6:9">
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
@@ -889,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
